--- a/data/combined_individual_data.xlsx
+++ b/data/combined_individual_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jy33\OneDrive\Desktop\R\bb_soc_exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jy33\OneDrive\Desktop\R\bb_soc_exp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A5DFB6-DE99-41E5-80E0-40F3126B3F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BB5FA-E44E-48DC-8195-9F0C40E500F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="38">
   <si>
     <t>replicate</t>
   </si>
@@ -145,15 +145,27 @@
   <si>
     <t>prop_success_female_only</t>
   </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>isoalted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,30 +473,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P49" sqref="P49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.265625" customWidth="1"/>
-    <col min="5" max="5" width="15.53125" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="10" width="14.86328125" customWidth="1"/>
-    <col min="11" max="11" width="15.46484375" customWidth="1"/>
-    <col min="12" max="12" width="13.53125" customWidth="1"/>
-    <col min="13" max="13" width="11.73046875" customWidth="1"/>
-    <col min="14" max="14" width="16.19921875" customWidth="1"/>
-    <col min="15" max="15" width="12.59765625" customWidth="1"/>
-    <col min="16" max="16" width="12.1328125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -603,7 +616,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -666,7 +679,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -728,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -787,7 +800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -850,7 +863,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -913,7 +926,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -976,7 +989,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1039,7 +1052,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1102,7 +1115,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1165,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1228,7 +1241,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1291,7 +1304,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1354,7 +1367,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1417,7 +1430,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1480,7 +1493,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1543,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1606,7 +1619,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1669,7 +1682,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1732,7 +1745,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1795,7 +1808,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1858,7 +1871,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1921,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1984,7 +1997,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2047,7 +2060,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2110,7 +2123,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2172,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2235,7 +2248,7 @@
         <v>0.10526315789473684</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2298,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2361,7 +2374,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2424,7 +2437,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2487,7 +2500,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2550,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2613,7 +2626,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2675,7 +2688,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2738,7 +2751,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2800,7 +2813,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2863,7 +2876,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2926,7 +2939,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2989,7 +3002,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3052,7 +3065,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3115,7 +3128,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3178,7 +3191,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3241,7 +3254,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3304,7 +3317,2862 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>9</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>7</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>18</v>
+      </c>
+      <c r="G54">
+        <v>14</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>14</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>6</v>
+      </c>
+      <c r="L55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>21</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+      <c r="H57">
+        <v>14</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="K57">
+        <v>7</v>
+      </c>
+      <c r="L57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>24</v>
+      </c>
+      <c r="G61">
+        <v>15</v>
+      </c>
+      <c r="H61">
+        <v>9</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <v>7</v>
+      </c>
+      <c r="L61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>28</v>
+      </c>
+      <c r="G63">
+        <v>19</v>
+      </c>
+      <c r="H63">
+        <v>9</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
+      </c>
+      <c r="K63">
+        <v>7</v>
+      </c>
+      <c r="L63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>12</v>
+      </c>
+      <c r="G67">
+        <v>9</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+      <c r="G69">
+        <v>9</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>14</v>
+      </c>
+      <c r="G70">
+        <v>9</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>18</v>
+      </c>
+      <c r="G72">
+        <v>9</v>
+      </c>
+      <c r="H72">
+        <v>9</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+      <c r="K72">
+        <v>5</v>
+      </c>
+      <c r="L72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75">
+        <v>6</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76">
+        <v>6</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78">
+        <v>7</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>4</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <v>7</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>13</v>
+      </c>
+      <c r="G81">
+        <v>8</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <v>8</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>6</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84">
+        <f>SUM(E82:E83)</f>
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ref="F84:L84" si="7">SUM(F82:F83)</f>
+        <v>14</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>20</v>
+      </c>
+      <c r="G85">
+        <v>10</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ref="H85:H117" si="8">F85-G85</f>
+        <v>10</v>
+      </c>
+      <c r="I85">
+        <v>5</v>
+      </c>
+      <c r="J85">
+        <v>7</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+      <c r="G86">
+        <v>6</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87">
+        <f>SUM(E85:E86)</f>
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ref="F87:L87" si="9">SUM(F85:F86)</f>
+        <v>29</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <v>4</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90">
+        <f>SUM(E88:E89)</f>
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ref="F90:L90" si="10">SUM(F88:F89)</f>
+        <v>10</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>19</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
+      <c r="J91">
+        <v>6</v>
+      </c>
+      <c r="K91">
+        <v>7</v>
+      </c>
+      <c r="L91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92">
+        <v>6</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93">
+        <f>SUM(E91:E92)</f>
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ref="F93:L93" si="11">SUM(F91:F92)</f>
+        <v>27</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>21</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="I94">
+        <v>10</v>
+      </c>
+      <c r="J94">
+        <v>12</v>
+      </c>
+      <c r="K94">
+        <v>4</v>
+      </c>
+      <c r="L94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="G95">
+        <v>4</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96">
+        <f>SUM(E94:E95)</f>
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ref="F96:L96" si="12">SUM(F94:F95)</f>
+        <v>26</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97">
+        <v>5</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>7</v>
+      </c>
+      <c r="G98">
+        <v>4</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98">
+        <v>3</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99">
+        <f>SUM(E97:E98)</f>
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ref="F99:L99" si="13">SUM(F97:F98)</f>
+        <v>18</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>11</v>
+      </c>
+      <c r="G100">
+        <v>6</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>12</v>
+      </c>
+      <c r="G101">
+        <v>6</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>3</v>
+      </c>
+      <c r="K101">
+        <v>4</v>
+      </c>
+      <c r="L101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102">
+        <f>SUM(E100:E101)</f>
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <f t="shared" ref="F102:L102" si="14">SUM(F100:F101)</f>
+        <v>23</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>8</v>
+      </c>
+      <c r="G103">
+        <v>5</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105">
+        <f>SUM(E103:E104)</f>
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <f t="shared" ref="F105:L105" si="15">SUM(F103:F104)</f>
+        <v>11</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>23</v>
+      </c>
+      <c r="G106">
+        <v>8</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="I106">
+        <v>6</v>
+      </c>
+      <c r="J106">
+        <v>7</v>
+      </c>
+      <c r="K106">
+        <v>7</v>
+      </c>
+      <c r="L106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>36</v>
+      </c>
+      <c r="E108">
+        <f>SUM(E106:E107)</f>
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <f t="shared" ref="F108:L108" si="16">SUM(F106:F107)</f>
+        <v>26</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>8</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111">
+        <f>SUM(E109:E110)</f>
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <f t="shared" ref="F111:L111" si="17">SUM(F109:F110)</f>
+        <v>9</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>28</v>
+      </c>
+      <c r="G112">
+        <v>6</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="I112">
+        <v>13</v>
+      </c>
+      <c r="J112">
+        <v>22</v>
+      </c>
+      <c r="K112">
+        <v>8</v>
+      </c>
+      <c r="L112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D114" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114">
+        <f>SUM(E112:E113)</f>
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <f t="shared" ref="F114:L114" si="18">SUM(F112:F113)</f>
+        <v>31</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="18"/>
+        <v>25</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115">
+        <v>27</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I115">
+        <v>9</v>
+      </c>
+      <c r="J115">
+        <v>11</v>
+      </c>
+      <c r="K115">
+        <v>11</v>
+      </c>
+      <c r="L115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117">
+        <f>SUM(E115:E116)</f>
+        <v>5</v>
+      </c>
+      <c r="F117">
+        <f t="shared" ref="F117:L117" si="19">SUM(F115:F116)</f>
+        <v>30</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="19"/>
+        <v>26</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/combined_individual_data.xlsx
+++ b/data/combined_individual_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jy33\OneDrive\Desktop\R\bb_soc_exp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janya\Desktop\R\bb_soc_exp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BB5FA-E44E-48DC-8195-9F0C40E500F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67156D91-4EF2-4AE5-83FF-8A6278D23FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="37">
   <si>
     <t>replicate</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>both</t>
-  </si>
-  <si>
-    <t>isoalted</t>
   </si>
 </sst>
 </file>
@@ -473,11 +470,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:R153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N77" sqref="N77"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K160" sqref="K160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4830,7 +4827,7 @@
         <v>10</v>
       </c>
       <c r="H85">
-        <f t="shared" ref="H85:H117" si="8">F85-G85</f>
+        <f t="shared" ref="H85:H116" si="8">F85-G85</f>
         <v>10</v>
       </c>
       <c r="I85">
@@ -6009,7 +6006,7 @@
         <v>30</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s">
         <v>36</v>
@@ -6169,6 +6166,1494 @@
       <c r="L117">
         <f t="shared" si="19"/>
         <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>16</v>
+      </c>
+      <c r="G118">
+        <v>6</v>
+      </c>
+      <c r="H118">
+        <f>F118-G118</f>
+        <v>10</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118">
+        <v>7</v>
+      </c>
+      <c r="K118">
+        <v>5</v>
+      </c>
+      <c r="L118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <f t="shared" ref="H119:H152" si="20">F119-G119</f>
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120">
+        <f>SUM(E118:E119)</f>
+        <v>4</v>
+      </c>
+      <c r="F120">
+        <f t="shared" ref="F120:L120" si="21">SUM(F118:F119)</f>
+        <v>19</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>6</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>3</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>8</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123">
+        <f>SUM(E121:E122)</f>
+        <v>6</v>
+      </c>
+      <c r="F123">
+        <f t="shared" ref="F123:L123" si="22">SUM(F121:F122)</f>
+        <v>14</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124">
+        <v>14</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>11</v>
+      </c>
+      <c r="L124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126">
+        <f>SUM(E124:E125)</f>
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <f t="shared" ref="F126:L126" si="23">SUM(F124:F125)</f>
+        <v>16</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>9</v>
+      </c>
+      <c r="G127">
+        <v>7</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129">
+        <f>SUM(E127:E128)</f>
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <f t="shared" ref="F129:L129" si="24">SUM(F127:F128)</f>
+        <v>11</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+      <c r="G130">
+        <v>8</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>3</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132">
+        <f>SUM(E130:E131)</f>
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ref="F132:L132" si="25">SUM(F130:F131)</f>
+        <v>13</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133">
+        <v>12</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>5</v>
+      </c>
+      <c r="K133">
+        <v>5</v>
+      </c>
+      <c r="L133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134">
+        <v>12</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134">
+        <v>4</v>
+      </c>
+      <c r="K134">
+        <v>5</v>
+      </c>
+      <c r="L134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135">
+        <f>SUM(E133:E134)</f>
+        <v>6</v>
+      </c>
+      <c r="F135">
+        <f t="shared" ref="F135:L135" si="26">SUM(F133:F134)</f>
+        <v>24</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136">
+        <v>27</v>
+      </c>
+      <c r="G136">
+        <v>17</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="I136">
+        <v>4</v>
+      </c>
+      <c r="J136">
+        <v>6</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138">
+        <f>SUM(E136:E137)</f>
+        <v>5</v>
+      </c>
+      <c r="F138">
+        <f t="shared" ref="F138:L138" si="27">SUM(F136:F137)</f>
+        <v>30</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="27"/>
+        <v>19</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139">
+        <v>12</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>4</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>2</v>
+      </c>
+      <c r="K140">
+        <v>3</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141">
+        <f>SUM(E139:E140)</f>
+        <v>3</v>
+      </c>
+      <c r="F141">
+        <f t="shared" ref="F141:L141" si="28">SUM(F139:F140)</f>
+        <v>22</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="28"/>
+        <v>13</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="28"/>
+        <v>9</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142">
+        <v>7</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="I142">
+        <v>5</v>
+      </c>
+      <c r="J142">
+        <v>6</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>6</v>
+      </c>
+      <c r="G143">
+        <v>3</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144">
+        <f>SUM(E142:E143)</f>
+        <v>2</v>
+      </c>
+      <c r="F144">
+        <f t="shared" ref="F144:L144" si="29">SUM(F142:F143)</f>
+        <v>21</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145">
+        <v>31</v>
+      </c>
+      <c r="G145">
+        <v>18</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="I145">
+        <v>3</v>
+      </c>
+      <c r="J145">
+        <v>7</v>
+      </c>
+      <c r="K145">
+        <v>7</v>
+      </c>
+      <c r="L145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" t="s">
+        <v>36</v>
+      </c>
+      <c r="E147">
+        <f>SUM(E145:E146)</f>
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <f t="shared" ref="F147:L147" si="30">SUM(F145:F146)</f>
+        <v>34</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="30"/>
+        <v>14</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="30"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <v>20</v>
+      </c>
+      <c r="G148">
+        <v>13</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="I148">
+        <v>4</v>
+      </c>
+      <c r="J148">
+        <v>4</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" t="s">
+        <v>36</v>
+      </c>
+      <c r="E150">
+        <f>SUM(E148:E149)</f>
+        <v>3</v>
+      </c>
+      <c r="F150">
+        <f t="shared" ref="F150:L150" si="31">SUM(F148:F149)</f>
+        <v>21</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="31"/>
+        <v>13</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>5</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>7</v>
+      </c>
+      <c r="G152">
+        <v>4</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>3</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153">
+        <f>SUM(E151:E152)</f>
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <f t="shared" ref="F153:L153" si="32">SUM(F151:F152)</f>
+        <v>12</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="32"/>
+        <v>7</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="32"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/combined_individual_data.xlsx
+++ b/data/combined_individual_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janya\Desktop\R\bb_soc_exp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67156D91-4EF2-4AE5-83FF-8A6278D23FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4065E8F-C1F6-467B-A04D-4601054CFA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="37">
   <si>
     <t>replicate</t>
   </si>
@@ -188,8 +188,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,11 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R153"/>
+  <dimension ref="A1:R189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K160" sqref="K160"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P162" sqref="P162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6230,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <f t="shared" ref="H119:H152" si="20">F119-G119</f>
+        <f t="shared" ref="H119:H162" si="20">F119-G119</f>
         <v>3</v>
       </c>
       <c r="I119">
@@ -7656,8 +7657,1496 @@
         <v>5</v>
       </c>
     </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>6</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154" s="1">
+        <f>F154-G154</f>
+        <v>2</v>
+      </c>
+      <c r="I154" s="1">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>6</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <f t="shared" ref="H155:H189" si="33">F155-G155</f>
+        <v>1</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+      <c r="J155" s="1">
+        <v>0</v>
+      </c>
+      <c r="K155" s="1">
+        <v>1</v>
+      </c>
+      <c r="L155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>6</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>36</v>
+      </c>
+      <c r="E156">
+        <f>SUM(E154:E155)</f>
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <f t="shared" ref="F156:L156" si="34">SUM(F154:F155)</f>
+        <v>4</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>29</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>14</v>
+      </c>
+      <c r="G157">
+        <v>9</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>3</v>
+      </c>
+      <c r="L157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>29</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>4</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>29</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s">
+        <v>36</v>
+      </c>
+      <c r="E159">
+        <f>SUM(E157:E158)</f>
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <f t="shared" ref="F159:L159" si="35">SUM(F157:F158)</f>
+        <v>18</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="35"/>
+        <v>10</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="35"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>7</v>
+      </c>
+      <c r="G160">
+        <v>4</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>4</v>
+      </c>
+      <c r="G161">
+        <v>3</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162">
+        <f>SUM(E160:E161)</f>
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <f t="shared" ref="F162:L162" si="36">SUM(F160:F161)</f>
+        <v>11</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="36"/>
+        <v>7</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>6</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>4</v>
+      </c>
+      <c r="L163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>6</v>
+      </c>
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>9</v>
+      </c>
+      <c r="G164">
+        <v>4</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>2</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165">
+        <f>SUM(E163:E164)</f>
+        <v>4</v>
+      </c>
+      <c r="F165">
+        <f t="shared" ref="F165:L165" si="37">SUM(F163:F164)</f>
+        <v>15</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="37"/>
+        <v>11</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="37"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>6</v>
+      </c>
+      <c r="B166" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>6</v>
+      </c>
+      <c r="B167" t="s">
+        <v>20</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>14</v>
+      </c>
+      <c r="G167">
+        <v>8</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167">
+        <v>3</v>
+      </c>
+      <c r="K167">
+        <v>3</v>
+      </c>
+      <c r="L167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>6</v>
+      </c>
+      <c r="B168" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168">
+        <f>SUM(E166:E167)</f>
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <f t="shared" ref="F168:L168" si="38">SUM(F166:F167)</f>
+        <v>14</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="38"/>
+        <v>8</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>3</v>
+      </c>
+      <c r="F169">
+        <v>36</v>
+      </c>
+      <c r="G169">
+        <v>19</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="33"/>
+        <v>17</v>
+      </c>
+      <c r="I169">
+        <v>4</v>
+      </c>
+      <c r="J169">
+        <v>7</v>
+      </c>
+      <c r="K169">
+        <v>11</v>
+      </c>
+      <c r="L169">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>6</v>
+      </c>
+      <c r="B170" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>3</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" t="s">
+        <v>36</v>
+      </c>
+      <c r="E171">
+        <f>SUM(E169:E170)</f>
+        <v>3</v>
+      </c>
+      <c r="F171">
+        <f t="shared" ref="F171:L171" si="39">SUM(F169:F170)</f>
+        <v>39</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="39"/>
+        <v>20</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="39"/>
+        <v>19</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="39"/>
+        <v>7</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="39"/>
+        <v>13</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="39"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <v>11</v>
+      </c>
+      <c r="G172">
+        <v>7</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>2</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>6</v>
+      </c>
+      <c r="B173" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>8</v>
+      </c>
+      <c r="G173">
+        <v>7</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" t="s">
+        <v>36</v>
+      </c>
+      <c r="E174">
+        <f>SUM(E172:E173)</f>
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <f t="shared" ref="F174:L174" si="40">SUM(F172:F173)</f>
+        <v>19</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="40"/>
+        <v>14</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="F175">
+        <v>20</v>
+      </c>
+      <c r="G175">
+        <v>14</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>2</v>
+      </c>
+      <c r="K175">
+        <v>3</v>
+      </c>
+      <c r="L175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>23</v>
+      </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>5</v>
+      </c>
+      <c r="G176">
+        <v>3</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" t="s">
+        <v>36</v>
+      </c>
+      <c r="E177">
+        <f>SUM(E175:E176)</f>
+        <v>4</v>
+      </c>
+      <c r="F177">
+        <f t="shared" ref="F177:L177" si="41">SUM(F175:F176)</f>
+        <v>25</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="41"/>
+        <v>17</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="41"/>
+        <v>8</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="41"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>4</v>
+      </c>
+      <c r="F178">
+        <v>23</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="33"/>
+        <v>20</v>
+      </c>
+      <c r="I178">
+        <v>2</v>
+      </c>
+      <c r="J178">
+        <v>8</v>
+      </c>
+      <c r="K178">
+        <v>14</v>
+      </c>
+      <c r="L178">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>6</v>
+      </c>
+      <c r="B179" t="s">
+        <v>24</v>
+      </c>
+      <c r="C179" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>7</v>
+      </c>
+      <c r="G179">
+        <v>7</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>24</v>
+      </c>
+      <c r="C180" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" t="s">
+        <v>36</v>
+      </c>
+      <c r="E180">
+        <f>SUM(E178:E179)</f>
+        <v>4</v>
+      </c>
+      <c r="F180">
+        <f t="shared" ref="F180:L180" si="42">SUM(F178:F179)</f>
+        <v>30</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="42"/>
+        <v>20</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="42"/>
+        <v>8</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="42"/>
+        <v>14</v>
+      </c>
+      <c r="L180">
+        <f t="shared" si="42"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>8</v>
+      </c>
+      <c r="G181">
+        <v>6</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>6</v>
+      </c>
+      <c r="B182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C182" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>9</v>
+      </c>
+      <c r="G182">
+        <v>8</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" t="s">
+        <v>36</v>
+      </c>
+      <c r="E183">
+        <f>SUM(E181:E182)</f>
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <f t="shared" ref="F183:L183" si="43">SUM(F181:F182)</f>
+        <v>17</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="43"/>
+        <v>14</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>30</v>
+      </c>
+      <c r="C184" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>5</v>
+      </c>
+      <c r="F184">
+        <v>8</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>2</v>
+      </c>
+      <c r="K184">
+        <v>3</v>
+      </c>
+      <c r="L184">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>6</v>
+      </c>
+      <c r="B185" t="s">
+        <v>30</v>
+      </c>
+      <c r="C185" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185">
+        <v>4</v>
+      </c>
+      <c r="F185">
+        <v>8</v>
+      </c>
+      <c r="G185">
+        <v>3</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>2</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>30</v>
+      </c>
+      <c r="C186" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" t="s">
+        <v>36</v>
+      </c>
+      <c r="E186">
+        <f>SUM(E184:E185)</f>
+        <v>9</v>
+      </c>
+      <c r="F186">
+        <f t="shared" ref="F186:L186" si="44">SUM(F184:F185)</f>
+        <v>16</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="44"/>
+        <v>3</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="44"/>
+        <v>13</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="44"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>26</v>
+      </c>
+      <c r="C187" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>4</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>6</v>
+      </c>
+      <c r="B188" t="s">
+        <v>26</v>
+      </c>
+      <c r="C188" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>2</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>2</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>6</v>
+      </c>
+      <c r="B189" t="s">
+        <v>26</v>
+      </c>
+      <c r="C189" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" t="s">
+        <v>36</v>
+      </c>
+      <c r="E189">
+        <f>SUM(E187:E188)</f>
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <f t="shared" ref="F189:L189" si="45">SUM(F187:F188)</f>
+        <v>6</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="45"/>
+        <v>5</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="45"/>
+        <v>3</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/combined_individual_data.xlsx
+++ b/data/combined_individual_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janya\Desktop\R\bb_soc_exp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4065E8F-C1F6-467B-A04D-4601054CFA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24481C72-2EF9-4308-AF6D-7110F6DE6F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,9 +188,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,8 +473,8 @@
   <dimension ref="A1:R189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P162" sqref="P162"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6177,7 +6176,7 @@
         <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -6216,7 +6215,7 @@
         <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -6231,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <f t="shared" ref="H119:H162" si="20">F119-G119</f>
+        <f t="shared" ref="H119:H152" si="20">F119-G119</f>
         <v>3</v>
       </c>
       <c r="I119">
@@ -6255,7 +6254,7 @@
         <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D120" t="s">
         <v>36</v>
@@ -7679,11 +7678,11 @@
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="H154" s="1">
+      <c r="H154">
         <f>F154-G154</f>
         <v>2</v>
       </c>
-      <c r="I154" s="1">
+      <c r="I154">
         <v>0</v>
       </c>
       <c r="J154">
@@ -7719,19 +7718,19 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <f t="shared" ref="H155:H189" si="33">F155-G155</f>
-        <v>1</v>
-      </c>
-      <c r="I155" s="1">
-        <v>0</v>
-      </c>
-      <c r="J155" s="1">
-        <v>0</v>
-      </c>
-      <c r="K155" s="1">
-        <v>1</v>
-      </c>
-      <c r="L155" s="1">
+        <f t="shared" ref="H155:H188" si="33">F155-G155</f>
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
         <v>1</v>
       </c>
     </row>
